--- a/docs/odh/shr-core-Section-model.xlsx
+++ b/docs/odh/shr-core-Section-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$12</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="75">
   <si>
     <t>Path</t>
   </si>
@@ -137,20 +137,116 @@
     <t>Represents a section containing entries in a composition.</t>
   </si>
   <si>
+    <t>shr-core-Section-model.title</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A distinguishing word or group of words naming an item.</t>
+  </si>
+  <si>
+    <t>shr-core-Section-model.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+  </si>
+  <si>
+    <t>shr-core-Section-model.author[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
+</t>
+  </si>
+  <si>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t>shr-core-Section-model.focalSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>shr-core-Section-model.narrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A human-readable narrative, potentially including images, that contains a summary of the resource, and may be used to represent the content of the resource to a human.</t>
+  </si>
+  <si>
+    <t>shr-core-Section-model.type</t>
+  </si>
+  <si>
+    <t>A code describing the item at a greater level of detail.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+</t>
+  </si>
+  <si>
+    <t>shr-core-Section-model.sortOrder</t>
+  </si>
+  <si>
+    <t>Specifies the sorting criterion applied to the items in a list.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+  </si>
+  <si>
     <t>shr-core-Section-model.domainResource</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.</t>
   </si>
   <si>
+    <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.
+Note to FHIR implementers: SHR includes Status and Identifier fields on DomainResource because these two attributes occur in almost every FHIR resource. The most significant exception are 3 or 4 resources that use an 'active' flag instead of coded status value. There is no apparent pattern to this inconsistency. FHIR resources that use a coded status have active and inactive as status values. In the spirit of providing a consistent object-oriented logical model for FHIR, SHR uses status across all domain resources.</t>
+  </si>
+  <si>
+    <t>shr-core-Section-model.emptyReason</t>
+  </si>
+  <si>
+    <t>Why the section is empty.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+  </si>
+  <si>
     <t>shr-core-Section-model.section</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Section-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Section-model {[]} {[]}
 </t>
   </si>
 </sst>
@@ -300,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -319,7 +415,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="243.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -333,8 +429,8 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.1875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -561,7 +657,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>36</v>
@@ -573,13 +669,13 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -636,7 +732,7 @@
         <v>37</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>36</v>
@@ -647,7 +743,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -658,7 +754,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>36</v>
@@ -670,13 +766,13 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -703,13 +799,11 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s" s="2">
         <v>36</v>
@@ -727,23 +821,793 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI4" t="s" s="2">
+      <c r="G5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI4">
+  <autoFilter ref="A1:AI12">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -753,7 +1617,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI3">
+  <conditionalFormatting sqref="A2:AI11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
